--- a/biology/Zoologie/Article_(Arthropodes)/Article_(Arthropodes).xlsx
+++ b/biology/Zoologie/Article_(Arthropodes)/Article_(Arthropodes).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En zoologie, on appelle article chacun des segments qui composent les appendices - pattes, antennes, palpes, etc. - des Arthropodes[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En zoologie, on appelle article chacun des segments qui composent les appendices - pattes, antennes, palpes, etc. - des Arthropodes,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot article dérive du latin articŭlus, qui signifie articulation, jointure des os (ou des membres), nœud (des doigts ou des plantes), partie, division[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot article dérive du latin articŭlus, qui signifie articulation, jointure des os (ou des membres), nœud (des doigts ou des plantes), partie, division,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Arthropodes se caractérisent par leur symétrie bilatérale, par la métamérisation, c'est-à-dire, la division de leurs corps en segments ou métamères, par leur appendices articulés, et par leur exosquelette. Chez la plupart des Arthropodes, les métamères sont différenciés, en termes de développement, de structure ou de fonction, ou en fonction des parties du corps qu'ils composent (tête, thorax et abdomen ; parfois, comme chez les Crustacés et les Arachnides, le deux premiers métamères fusionnent pour constituer un céphalothorax). Typiquement, tous les métamères qui composent leur corps, hormis l'acron (premier segment de la tête) et le telson, possèdent une paire d'appendices, articulés avec le corps, et constitués d'une succession de segments, les articles, articulés en eux, ce qui est précisément la caractéristique qui leur donne leur nom. Ces appendices, fondamentalement semblables entre eux, sont en principe destinés à la locomotion, mais au cours de l'évolution, d'une part, certains ont disparu, et d'autre part, ils se sont diversifiés pour remplir de nouvelles fonctions. Les appendices s'articulent avec le métamère au niveau d'un segment compris entre le tergite et le sternite, et occupent une position latérale si ceux-ci sont également développés, mais se décalent ventralement si le sternite est plus réduit[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Arthropodes se caractérisent par leur symétrie bilatérale, par la métamérisation, c'est-à-dire, la division de leurs corps en segments ou métamères, par leur appendices articulés, et par leur exosquelette. Chez la plupart des Arthropodes, les métamères sont différenciés, en termes de développement, de structure ou de fonction, ou en fonction des parties du corps qu'ils composent (tête, thorax et abdomen ; parfois, comme chez les Crustacés et les Arachnides, le deux premiers métamères fusionnent pour constituer un céphalothorax). Typiquement, tous les métamères qui composent leur corps, hormis l'acron (premier segment de la tête) et le telson, possèdent une paire d'appendices, articulés avec le corps, et constitués d'une succession de segments, les articles, articulés en eux, ce qui est précisément la caractéristique qui leur donne leur nom. Ces appendices, fondamentalement semblables entre eux, sont en principe destinés à la locomotion, mais au cours de l'évolution, d'une part, certains ont disparu, et d'autre part, ils se sont diversifiés pour remplir de nouvelles fonctions. Les appendices s'articulent avec le métamère au niveau d'un segment compris entre le tergite et le sternite, et occupent une position latérale si ceux-ci sont également développés, mais se décalent ventralement si le sternite est plus réduit,.
 Chaque appendice est normalement constitué par un nombre déterminé d'articles articulés entre eux et chacun mobile par rapport à l'article précédant grâce à des muscles qui lui sont propres. Par ailleurs, les articles des appendices peuvent se regrouper en sections fondamentales, qui représentent probablement la trace d'une subdivision primaire de l'appendice primitif des Arthropodes, à laquelle s'est superposée, au cours de l'évolution, une subdivision secondaire correspondant à la segmentation actuelle. A l'origine, l'appendice primordial devait être constitué par une pièce basale, le coxito, et par une autre distale, le télopode, qui très vite se serait subdivisée en deux sections, l'une fémorale et l'autre tibiale. Enfin, chacune de ces trois sections aurait évolué vers la structure actuelle en segments ou articles :
 coxito : procoxa, coxa et base ;
 section fémorale : preischium, ischium et mero ;
